--- a/input_xlsx/Hassan 019.xlsx
+++ b/input_xlsx/Hassan 019.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UNIPA\Desktop\Hassan\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="8130" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sampling Events" sheetId="2" r:id="rId1"/>
@@ -17,7 +12,7 @@
     <sheet name="Literature" sheetId="6" r:id="rId3"/>
     <sheet name="Measurement" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -33,7 +28,7 @@
     <author>Primadieta</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -121,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -165,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -209,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -253,7 +248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -297,7 +292,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -341,7 +336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -385,7 +380,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -429,7 +424,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -473,7 +468,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -517,7 +512,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -561,7 +556,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -605,7 +600,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -649,7 +644,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -693,7 +688,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -737,7 +732,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -781,7 +776,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -825,7 +820,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -869,7 +864,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="1" shapeId="0">
+    <comment ref="T1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -904,7 +899,7 @@
     <author>Primadieta</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -948,7 +943,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -992,7 +987,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1036,7 +1031,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1080,7 +1075,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1124,7 +1119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1178,7 +1173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1222,7 +1217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1266,7 +1261,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1310,7 +1305,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1354,7 +1349,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1398,7 +1393,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1442,7 +1437,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1486,7 +1481,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1530,7 +1525,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1574,7 +1569,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1618,7 +1613,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="1" shapeId="0">
+    <comment ref="Q1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1653,7 +1648,7 @@
     <author>Primadieta</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1697,7 +1692,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1741,7 +1736,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1785,7 +1780,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1829,7 +1824,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1873,7 +1868,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1917,7 +1912,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1961,7 +1956,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2005,7 +2000,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2049,7 +2044,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="1" shapeId="0">
+    <comment ref="J1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2083,7 +2078,7 @@
     <author>Kyle Braak</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2127,7 +2122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2171,7 +2166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2196,7 +2191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2240,7 +2235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2284,7 +2279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2328,7 +2323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2372,7 +2367,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2416,7 +2411,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2465,7 +2460,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="97">
   <si>
     <t>occurrenceID</t>
   </si>
@@ -2603,9 +2598,6 @@
   </si>
   <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">PAPUA </t>
@@ -2885,25 +2877,25 @@
     <t>Jafry. F.Manuhutu. S.Pi, M.Si | Tresia Tururaja S.Ik, M.Si</t>
   </si>
   <si>
-    <t>UNIPA-2011EK-HS019-MA001</t>
-  </si>
-  <si>
-    <t>UNIPA-2011EK-HS019-MA002</t>
-  </si>
-  <si>
-    <t>UNIPA-2011EK-HS019-MA003</t>
-  </si>
-  <si>
-    <t>UNIPA-2011EK-HS019-MA004</t>
-  </si>
-  <si>
-    <t>UNIPA-2011EK-HS019-MA005</t>
-  </si>
-  <si>
-    <t>UNIPA-2011EK-HS019-MA006</t>
-  </si>
-  <si>
-    <t>UNIPA-2011EK-HS019-MA007</t>
+    <t>UNIPA-2011EK-HS019-MS001-MA001</t>
+  </si>
+  <si>
+    <t>UNIPA-2011EK-HS019-MS001-MA002</t>
+  </si>
+  <si>
+    <t>UNIPA-2011EK-HS019-MS001-MA003</t>
+  </si>
+  <si>
+    <t>UNIPA-2011EK-HS019-MS001-MA004</t>
+  </si>
+  <si>
+    <t>UNIPA-2011EK-HS019-MS001-MA005</t>
+  </si>
+  <si>
+    <t>UNIPA-2011EK-HS019-MS001-MA006</t>
+  </si>
+  <si>
+    <t>UNIPA-2011EK-HS019-MS001-MA007</t>
   </si>
 </sst>
 </file>
@@ -3174,7 +3166,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
@@ -3188,7 +3180,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="90">
@@ -3622,30 +3613,30 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.58203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="10" width="14.875" customWidth="1"/>
-    <col min="11" max="11" width="17.625" customWidth="1"/>
+    <col min="9" max="10" width="14.83203125" customWidth="1"/>
+    <col min="11" max="11" width="17.58203125" customWidth="1"/>
     <col min="12" max="12" width="16.5" customWidth="1"/>
-    <col min="13" max="13" width="16.125" customWidth="1"/>
+    <col min="13" max="13" width="16.08203125" customWidth="1"/>
     <col min="14" max="17" width="13.5" customWidth="1"/>
     <col min="18" max="18" width="14.75" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="64.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="64.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -3707,30 +3698,30 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
         <v>59</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="F2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="H2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K2" s="9">
         <v>-0.90408299999999997</v>
@@ -3745,48 +3736,48 @@
         <v>45</v>
       </c>
       <c r="O2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q2" t="s">
+        <v>63</v>
+      </c>
+      <c r="R2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S2" t="s">
         <v>64</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>66</v>
       </c>
-      <c r="S2" t="s">
-        <v>65</v>
-      </c>
-      <c r="T2" t="s">
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" t="s">
-        <v>68</v>
-      </c>
       <c r="C3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="F3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="H3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K3" s="9">
         <v>-0.90408299999999997</v>
@@ -3801,48 +3792,48 @@
         <v>45</v>
       </c>
       <c r="O3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q3" t="s">
+        <v>63</v>
+      </c>
+      <c r="R3" t="s">
+        <v>65</v>
+      </c>
+      <c r="S3" t="s">
         <v>64</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
         <v>66</v>
       </c>
-      <c r="S3" t="s">
-        <v>65</v>
-      </c>
-      <c r="T3" t="s">
-        <v>67</v>
-      </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="F4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K4" s="9">
         <v>-0.90408299999999997</v>
@@ -3857,48 +3848,48 @@
         <v>45</v>
       </c>
       <c r="O4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R4" t="s">
+        <v>65</v>
+      </c>
+      <c r="S4" t="s">
         <v>64</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
         <v>66</v>
       </c>
-      <c r="S4" t="s">
-        <v>65</v>
-      </c>
-      <c r="T4" t="s">
-        <v>67</v>
-      </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="F5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="H5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K5" s="9">
         <v>-0.90408299999999997</v>
@@ -3913,48 +3904,48 @@
         <v>45</v>
       </c>
       <c r="O5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q5" t="s">
+        <v>63</v>
+      </c>
+      <c r="R5" t="s">
+        <v>65</v>
+      </c>
+      <c r="S5" t="s">
         <v>64</v>
       </c>
-      <c r="R5" t="s">
+      <c r="T5" t="s">
         <v>66</v>
       </c>
-      <c r="S5" t="s">
-        <v>65</v>
-      </c>
-      <c r="T5" t="s">
-        <v>67</v>
-      </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="F6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="H6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K6" s="9">
         <v>-0.90408299999999997</v>
@@ -3969,48 +3960,48 @@
         <v>45</v>
       </c>
       <c r="O6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R6" t="s">
+        <v>65</v>
+      </c>
+      <c r="S6" t="s">
         <v>64</v>
       </c>
-      <c r="R6" t="s">
+      <c r="T6" t="s">
         <v>66</v>
       </c>
-      <c r="S6" t="s">
-        <v>65</v>
-      </c>
-      <c r="T6" t="s">
-        <v>67</v>
-      </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="F7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="H7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K7" s="9">
         <v>-0.90408299999999997</v>
@@ -4025,48 +4016,48 @@
         <v>45</v>
       </c>
       <c r="O7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q7" t="s">
+        <v>63</v>
+      </c>
+      <c r="R7" t="s">
+        <v>65</v>
+      </c>
+      <c r="S7" t="s">
         <v>64</v>
       </c>
-      <c r="R7" t="s">
+      <c r="T7" t="s">
         <v>66</v>
       </c>
-      <c r="S7" t="s">
-        <v>65</v>
-      </c>
-      <c r="T7" t="s">
-        <v>67</v>
-      </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="F8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="H8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K8" s="9">
         <v>-0.90408299999999997</v>
@@ -4081,25 +4072,25 @@
         <v>45</v>
       </c>
       <c r="O8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q8" t="s">
+        <v>63</v>
+      </c>
+      <c r="R8" t="s">
+        <v>65</v>
+      </c>
+      <c r="S8" t="s">
         <v>64</v>
       </c>
-      <c r="R8" t="s">
+      <c r="T8" t="s">
         <v>66</v>
       </c>
-      <c r="S8" t="s">
-        <v>65</v>
-      </c>
-      <c r="T8" t="s">
-        <v>67</v>
-      </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -4108,7 +4099,7 @@
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -4117,7 +4108,7 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -4126,7 +4117,7 @@
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -4135,7 +4126,7 @@
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -4144,7 +4135,7 @@
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -4153,7 +4144,7 @@
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -4162,7 +4153,7 @@
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -4171,7 +4162,7 @@
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -4180,7 +4171,7 @@
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -4189,7 +4180,7 @@
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -4198,7 +4189,7 @@
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -4207,7 +4198,7 @@
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -4216,7 +4207,7 @@
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.35">
       <c r="D22" s="7"/>
     </row>
   </sheetData>
@@ -4233,34 +4224,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.08203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1"/>
-    <col min="6" max="6" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.875" customWidth="1"/>
-    <col min="10" max="10" width="18.625" customWidth="1"/>
-    <col min="11" max="11" width="15.625" customWidth="1"/>
+    <col min="8" max="8" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" customWidth="1"/>
+    <col min="10" max="10" width="18.58203125" customWidth="1"/>
+    <col min="11" max="11" width="15.58203125" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="18.875" customWidth="1"/>
-    <col min="14" max="14" width="17.875" customWidth="1"/>
-    <col min="15" max="15" width="24.125" customWidth="1"/>
+    <col min="13" max="13" width="18.83203125" customWidth="1"/>
+    <col min="14" max="14" width="17.83203125" customWidth="1"/>
+    <col min="15" max="15" width="24.08203125" customWidth="1"/>
     <col min="16" max="16" width="21.5" customWidth="1"/>
-    <col min="17" max="17" width="188.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="188.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -4313,27 +4304,27 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="9">
@@ -4349,36 +4340,36 @@
         <v>45</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="G3" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="9">
@@ -4394,36 +4385,36 @@
         <v>45</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="G4" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="9">
@@ -4439,36 +4430,36 @@
         <v>45</v>
       </c>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="G5" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="9">
@@ -4484,36 +4475,36 @@
         <v>45</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="G6" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="9">
@@ -4529,36 +4520,36 @@
         <v>45</v>
       </c>
       <c r="M6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="G7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="9">
@@ -4574,36 +4565,36 @@
         <v>45</v>
       </c>
       <c r="M7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="G8" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="9">
@@ -4619,136 +4610,13 @@
         <v>45</v>
       </c>
       <c r="M8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="17" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-    </row>
-    <row r="18" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-    </row>
-    <row r="19" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-    </row>
-    <row r="20" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-    </row>
-    <row r="21" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-    </row>
-    <row r="22" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="Q22" s="11"/>
-    </row>
-    <row r="45" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N45" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -4772,20 +4640,20 @@
       <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.75" customWidth="1"/>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
     <col min="4" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="15.875" customWidth="1"/>
+    <col min="6" max="6" width="15.58203125" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
     <col min="8" max="8" width="34.5" customWidth="1"/>
     <col min="9" max="9" width="19.25" customWidth="1"/>
-    <col min="10" max="10" width="39.375" customWidth="1"/>
+    <col min="10" max="10" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -4817,33 +4685,33 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" t="s">
         <v>88</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>89</v>
       </c>
-      <c r="E2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" s="12">
+      <c r="F2" s="11">
         <v>41250</v>
       </c>
       <c r="G2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" t="s">
         <v>51</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>52</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>53</v>
-      </c>
-      <c r="J2" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -4861,20 +4729,20 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="16.75" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="21.75" customWidth="1"/>
     <col min="7" max="7" width="19.75" customWidth="1"/>
-    <col min="8" max="8" width="28.625" customWidth="1"/>
-    <col min="9" max="9" width="22.625" customWidth="1"/>
+    <col min="8" max="8" width="28.58203125" customWidth="1"/>
+    <col min="9" max="9" width="22.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
